--- a/websites Credentials 10-14-2022.xlsx
+++ b/websites Credentials 10-14-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>admin</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Dr Eno</t>
   </si>
   <si>
-    <t>https://texasairwayinstitute.com/wp-admin/</t>
-  </si>
-  <si>
-    <t>ssYNYEXrnO10^ImSrWVz^ANB</t>
-  </si>
-  <si>
     <t>atomichomesupply</t>
   </si>
   <si>
@@ -151,13 +145,73 @@
   </si>
   <si>
     <t>anax-@dmin</t>
+  </si>
+  <si>
+    <t>UwD7IW722z</t>
+  </si>
+  <si>
+    <t>mPM1UcN5kr$7</t>
+  </si>
+  <si>
+    <t>https://alliedbrothers.net/wp-admin/</t>
+  </si>
+  <si>
+    <t>KLzY6TDnWG</t>
+  </si>
+  <si>
+    <t>1#AjarMSZCJj</t>
+  </si>
+  <si>
+    <t>texasairwayinstitute.com/wp-admin</t>
+  </si>
+  <si>
+    <t>https://superioredgelandscaping.com/wp-admin</t>
+  </si>
+  <si>
+    <t>!U4qxeDge5rXkog7jx</t>
+  </si>
+  <si>
+    <t>https://1stoptravelsta.com/wp-admin</t>
+  </si>
+  <si>
+    <t>9h5OZgZ0LP</t>
+  </si>
+  <si>
+    <t>lEH4fT!u$Z$f</t>
+  </si>
+  <si>
+    <t>https://www.riverasfloor.com/wp-admin</t>
+  </si>
+  <si>
+    <t>riverasfloor</t>
+  </si>
+  <si>
+    <t>a*L_KTDx0*&amp;M</t>
+  </si>
+  <si>
+    <t>https://www.riverasfloor.com/cpanel</t>
+  </si>
+  <si>
+    <t>TmESdmuFqA</t>
+  </si>
+  <si>
+    <t>bLAU2*mjN^%u</t>
+  </si>
+  <si>
+    <t>https://superioredgelandscaping.com/</t>
+  </si>
+  <si>
+    <t>https://dynleadco.com/wp-admin/admin</t>
+  </si>
+  <si>
+    <t>dI2EhrL(BvSEKhU&amp;no2esRLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +254,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,6 +331,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,138 +633,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -674,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>0</v>
@@ -686,30 +785,30 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="7">
         <v>2</v>
@@ -718,193 +817,259 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="J6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E7" s="6">
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E8" s="7">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="6">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J9" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="E10" s="7">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J10" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="6">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="J11" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E12" s="7">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="6">
         <v>9</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="J13" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E14" s="7">
         <v>10</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="J14" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E27" s="6"/>
     </row>
   </sheetData>
@@ -915,18 +1080,22 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1"/>
-    <hyperlink ref="G6" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G8" r:id="rId4"/>
-    <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="L5" r:id="rId6"/>
-    <hyperlink ref="G10" r:id="rId7"/>
-    <hyperlink ref="G11" r:id="rId8"/>
-    <hyperlink ref="B5" r:id="rId9"/>
-    <hyperlink ref="B6" r:id="rId10"/>
-    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="L5" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="G12" r:id="rId10"/>
+    <hyperlink ref="G6" r:id="rId11" display="http://texasairwayinstitute.com/"/>
+    <hyperlink ref="G14" r:id="rId12"/>
+    <hyperlink ref="G15" r:id="rId13"/>
+    <hyperlink ref="G16" r:id="rId14"/>
+    <hyperlink ref="L6" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/websites Credentials 10-14-2022.xlsx
+++ b/websites Credentials 10-14-2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>admin</t>
   </si>
@@ -205,6 +205,33 @@
   </si>
   <si>
     <t>dI2EhrL(BvSEKhU&amp;no2esRLA</t>
+  </si>
+  <si>
+    <t>79KnfDmGO4</t>
+  </si>
+  <si>
+    <t>SAoa3G3&amp;#bh7Production</t>
+  </si>
+  <si>
+    <t>https://malevolentmouseproductions.com/wp-login</t>
+  </si>
+  <si>
+    <t>alliedbrothers.net</t>
+  </si>
+  <si>
+    <t>riverasfloor.com</t>
+  </si>
+  <si>
+    <t>superioredgelandscaping.com</t>
+  </si>
+  <si>
+    <t>dynleadco.com</t>
+  </si>
+  <si>
+    <t>malevolentmouseproductions.com/w</t>
+  </si>
+  <si>
+    <t>1stoptravelsta.com</t>
   </si>
 </sst>
 </file>
@@ -633,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,6 +994,9 @@
       <c r="E13" s="6">
         <v>9</v>
       </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>44</v>
       </c>
@@ -984,6 +1014,9 @@
       <c r="E14" s="7">
         <v>10</v>
       </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
@@ -998,7 +1031,12 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E15" s="6"/>
+      <c r="E15" s="6">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1010,7 +1048,12 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E16" s="7"/>
+      <c r="E16" s="7">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1022,8 +1065,13 @@
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-      <c r="G17" t="s">
+      <c r="E17" s="6">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H17" s="16" t="s">
@@ -1034,8 +1082,13 @@
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E18" s="7"/>
-      <c r="G18" t="s">
+      <c r="E18" s="7">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H18" s="11" t="s">
@@ -1046,7 +1099,21 @@
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E20" s="7"/>
@@ -1094,8 +1161,12 @@
     <hyperlink ref="G15" r:id="rId13"/>
     <hyperlink ref="G16" r:id="rId14"/>
     <hyperlink ref="L6" r:id="rId15"/>
+    <hyperlink ref="G13" r:id="rId16"/>
+    <hyperlink ref="G17" r:id="rId17"/>
+    <hyperlink ref="G18" r:id="rId18"/>
+    <hyperlink ref="G19" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/websites Credentials 10-14-2022.xlsx
+++ b/websites Credentials 10-14-2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>admin</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>1stoptravelsta.com</t>
+  </si>
+  <si>
+    <t>@anx-@dmin</t>
+  </si>
+  <si>
+    <t>Ahsea8ira%1nZga3Wnig</t>
+  </si>
+  <si>
+    <t>https://hseamossllc.com/wp-admin</t>
+  </si>
+  <si>
+    <t>hseamossllc.com</t>
   </si>
 </sst>
 </file>
@@ -660,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1128,21 @@
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E20" s="7"/>
+      <c r="E20" s="7">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E21" s="6"/>
@@ -1165,8 +1191,9 @@
     <hyperlink ref="G17" r:id="rId17"/>
     <hyperlink ref="G18" r:id="rId18"/>
     <hyperlink ref="G19" r:id="rId19"/>
+    <hyperlink ref="G20" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>